--- a/tests/evaluated_data_PF_ENUM.RAGAR.xlsx
+++ b/tests/evaluated_data_PF_ENUM.RAGAR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>half-true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>half-true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>half-true</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,12 +611,182 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>half-true</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>In 20 years there will be enough Muslim voters in the U.S. to elect the president by themselves.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pants-fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Since NAFTA’s adoption, the United States racked up trade deficits totaling more than $2 trillion.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>true</t>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>mostly-true</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>If you look at any real analysis, the Trans-Pacific Partnership is going to generate better-paying jobs that are more stable.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>half-true</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>half-true</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Polls show that Floridians don t want to repeal the Affordable Care Act.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>barely-true</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hawaii wildfire was intentionally set because there’s “120 million tons of lithium in Maui.”</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pants-fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Connecticut ballot initiative on early voting would remove the requirement of a certified seal from certain ballots.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Says President Obama is reducing our naval fleet to 1917 levels...</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>barely-true</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>It Georgia was one of the earliest Christian nations. The king of then-Georgia in the third century converted to Christianity.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mostly-true</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A Gallup report recently said that nearly 50 percent of small business owners aren t hiring because of what they call ‘regulatory uncertainty.’</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>half-true</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The Democratic clean energy plan is pro-China, because 90% of the solar panels, 80% of the wind machines, 90% of the rare earth minerals … are in Asia or in China.”</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>half-true</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>half-true</t>
         </is>
       </c>
     </row>
